--- a/hardware/BOM/calve_heater_BOM.xlsx
+++ b/hardware/BOM/calve_heater_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\KICAD DESIGNS\other projects\CALVE HEATER\hardware\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF074A9F-4482-442C-8573-10318D75288E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7B2EB6-262E-47FD-8CBE-F004F10E3BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A76AFF5-063F-4A7C-9060-26CB3EE7DA50}"/>
   </bookViews>
@@ -268,9 +268,6 @@
     <t>LM1117-3.3</t>
   </si>
   <si>
-    <t xml:space="preserve"> LM1117GSF-3.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Y1</t>
   </si>
   <si>
@@ -419,6 +416,9 @@
   </si>
   <si>
     <t>QTY</t>
+  </si>
+  <si>
+    <t>LP3986-33B3F</t>
   </si>
 </sst>
 </file>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42DB3A-EDC3-46CA-96FD-CDACA2648426}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,27 +794,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -843,10 +843,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -863,10 +863,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -883,10 +883,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -903,10 +903,10 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -923,10 +923,10 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -943,10 +943,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -963,10 +963,10 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -983,10 +983,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1003,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1023,10 +1023,10 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1043,10 +1043,10 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
         <v>103</v>
-      </c>
-      <c r="E13" t="s">
-        <v>104</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1063,10 +1063,10 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1083,10 +1083,10 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1123,10 +1123,10 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1203,10 +1203,10 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1223,10 +1223,10 @@
         <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1243,10 +1243,10 @@
         <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1263,10 +1263,10 @@
         <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1283,10 +1283,10 @@
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1303,10 +1303,10 @@
         <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1323,10 +1323,10 @@
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
@@ -1343,10 +1343,10 @@
         <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
@@ -1363,10 +1363,10 @@
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -1383,10 +1383,10 @@
         <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
@@ -1403,10 +1403,10 @@
         <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F31">
         <v>5</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
         <v>62</v>
@@ -1423,10 +1423,10 @@
         <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -1443,10 +1443,10 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1466,7 +1466,7 @@
         <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1523,10 +1523,10 @@
         <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1534,19 +1534,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
         <v>79</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>80</v>
       </c>
-      <c r="C38" t="s">
-        <v>81</v>
-      </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F38">
         <v>1</v>
